--- a/config/dab.xlsx
+++ b/config/dab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D899EF-E422-449F-9415-329DC3141D01}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{28BD4CF4-A877-4909-81F4-E5A6CEB4DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DCA78F-AF6B-4E93-A8AA-A58962337987}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="10020" yWindow="1872" windowWidth="18216" windowHeight="12120" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1718,6 +1718,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2227,7 +2231,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="23">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>28</v>
@@ -2692,7 +2696,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,7 +2739,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>22</v>
@@ -2895,7 +2899,7 @@
         <v>311</v>
       </c>
       <c r="E10" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>80</v>
@@ -3045,7 +3049,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,7 +3254,7 @@
         <v>106</v>
       </c>
       <c r="E11" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>23</v>
@@ -3268,7 +3272,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="12">
-        <v>5.0000000000000002E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F12" s="54" t="s">
         <v>117</v>
@@ -3340,7 +3344,7 @@
         <v>111</v>
       </c>
       <c r="E16" s="11">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>28</v>
